--- a/WebForecastReport/wwwroot/template/quotation_report_department.xlsx
+++ b/WebForecastReport/wwwroot/template/quotation_report_department.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>Department</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>No go</t>
+  </si>
+  <si>
+    <t>Pending</t>
   </si>
 </sst>
 </file>
@@ -89,7 +92,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,8 +129,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -161,11 +170,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -197,10 +256,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -209,10 +268,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -495,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -517,9 +591,11 @@
     <col min="14" max="14" width="4" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.85546875" style="4" customWidth="1"/>
+    <col min="18" max="18" width="5.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -539,7 +615,7 @@
       <c r="O1" s="8"/>
       <c r="P1" s="8"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -558,16 +634,20 @@
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="21"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
@@ -600,8 +680,14 @@
         <v>13</v>
       </c>
       <c r="P3" s="12"/>
+      <c r="Q3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -642,22 +728,27 @@
       <c r="P4" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="16">
+    <mergeCell ref="R3:R4"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="K2:P2"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="E2:J2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="Q3:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/WebForecastReport/wwwroot/template/quotation_report_department.xlsx
+++ b/WebForecastReport/wwwroot/template/quotation_report_department.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kriangkrai\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kriangkrai\Source\Repos\kreangkrai\WebForecastReport\WebForecastReport\wwwroot\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="15">
   <si>
     <t>Department</t>
   </si>
@@ -92,7 +92,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,12 +131,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -220,15 +226,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -238,56 +265,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,186 +692,676 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:BN5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="5.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.85546875" style="4" customWidth="1"/>
-    <col min="18" max="18" width="5.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.28515625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.28515625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.28515625" style="3" customWidth="1"/>
+    <col min="20" max="20" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.28515625" style="3" customWidth="1"/>
+    <col min="22" max="22" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="4" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="6"/>
+      <c r="AT1" s="6"/>
+      <c r="AU1" s="6"/>
+      <c r="AV1" s="6"/>
+      <c r="AW1" s="6"/>
+      <c r="AX1" s="6"/>
+      <c r="AY1" s="6"/>
+      <c r="AZ1" s="6"/>
+      <c r="BA1" s="6"/>
+      <c r="BB1" s="6"/>
+      <c r="BC1" s="6"/>
+      <c r="BD1" s="6"/>
+      <c r="BE1" s="6"/>
+      <c r="BF1" s="6"/>
+      <c r="BG1" s="6"/>
+      <c r="BH1" s="6"/>
+      <c r="BI1" s="6"/>
+      <c r="BJ1" s="6"/>
+      <c r="BK1" s="6"/>
+      <c r="BL1" s="6"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="16" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="17" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="21" t="s">
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="13"/>
+      <c r="AN2" s="13"/>
+      <c r="AO2" s="13"/>
+      <c r="AP2" s="13"/>
+      <c r="AQ2" s="13"/>
+      <c r="AR2" s="13"/>
+      <c r="AS2" s="13"/>
+      <c r="AT2" s="13"/>
+      <c r="AU2" s="13"/>
+      <c r="AV2" s="13"/>
+      <c r="AW2" s="13"/>
+      <c r="AX2" s="13"/>
+      <c r="AY2" s="13"/>
+      <c r="AZ2" s="13"/>
+      <c r="BA2" s="13"/>
+      <c r="BB2" s="13"/>
+      <c r="BC2" s="13"/>
+      <c r="BD2" s="13"/>
+      <c r="BE2" s="13"/>
+      <c r="BF2" s="13"/>
+      <c r="BG2" s="13"/>
+      <c r="BH2" s="13"/>
+      <c r="BI2" s="13"/>
+      <c r="BJ2" s="13"/>
+      <c r="BK2" s="13"/>
+      <c r="BL2" s="13"/>
+      <c r="BM2" s="13"/>
+      <c r="BN2" s="14"/>
+    </row>
+    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="17"/>
+      <c r="AI3" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="27"/>
+      <c r="AQ3" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR3" s="36"/>
+      <c r="AS3" s="36"/>
+      <c r="AT3" s="36"/>
+      <c r="AU3" s="36"/>
+      <c r="AV3" s="36"/>
+      <c r="AW3" s="36"/>
+      <c r="AX3" s="37"/>
+      <c r="AY3" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ3" s="46"/>
+      <c r="BA3" s="46"/>
+      <c r="BB3" s="46"/>
+      <c r="BC3" s="46"/>
+      <c r="BD3" s="46"/>
+      <c r="BE3" s="46"/>
+      <c r="BF3" s="47"/>
+      <c r="BG3" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="21"/>
+      <c r="BH3" s="50"/>
+      <c r="BI3" s="50"/>
+      <c r="BJ3" s="50"/>
+      <c r="BK3" s="50"/>
+      <c r="BL3" s="50"/>
+      <c r="BM3" s="50"/>
+      <c r="BN3" s="41"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="10" t="s">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="17"/>
+      <c r="K4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="17"/>
+      <c r="M4" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="17"/>
+      <c r="S4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" s="17"/>
+      <c r="U4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="V4" s="17"/>
+      <c r="W4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH4" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10" t="s">
+      <c r="AJ4" s="33"/>
+      <c r="AK4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10" t="s">
+      <c r="AL4" s="33"/>
+      <c r="AM4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="R3" s="20" t="s">
+      <c r="AN4" s="33"/>
+      <c r="AO4" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP4" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ4" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR4" s="44"/>
+      <c r="AS4" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT4" s="44"/>
+      <c r="AU4" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV4" s="44"/>
+      <c r="AW4" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX4" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ4" s="31"/>
+      <c r="BA4" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB4" s="31"/>
+      <c r="BC4" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD4" s="31"/>
+      <c r="BE4" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF4" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG4" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="BH4" s="41"/>
+      <c r="BI4" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ4" s="41"/>
+      <c r="BK4" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="BL4" s="41"/>
+      <c r="BM4" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN4" s="51" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
+    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W5" s="24"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG5" s="22"/>
+      <c r="AH5" s="22"/>
+      <c r="AI5" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ5" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK5" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL5" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM5" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN5" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO5" s="29"/>
+      <c r="AP5" s="29"/>
+      <c r="AQ5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW5" s="39"/>
+      <c r="AX5" s="39"/>
+      <c r="AY5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="BB5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BC5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE5" s="49"/>
+      <c r="BF5" s="49"/>
+      <c r="BG5" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="BH5" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI5" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="BJ5" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK5" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL5" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="BM5" s="52"/>
+      <c r="BN5" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
+  <mergeCells count="52">
+    <mergeCell ref="BG3:BN3"/>
+    <mergeCell ref="BM4:BM5"/>
+    <mergeCell ref="BN4:BN5"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="BK4:BL4"/>
+    <mergeCell ref="AI2:BN2"/>
+    <mergeCell ref="AY3:BF3"/>
+    <mergeCell ref="AY4:AZ4"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="BC4:BD4"/>
+    <mergeCell ref="BE4:BE5"/>
+    <mergeCell ref="BF4:BF5"/>
+    <mergeCell ref="AQ3:AX3"/>
+    <mergeCell ref="AQ4:AR4"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AW4:AW5"/>
+    <mergeCell ref="AX4:AX5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AI3:AP3"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AM4:AN4"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="O3:X3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E2:AH2"/>
+    <mergeCell ref="Y3:AH3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/WebForecastReport/wwwroot/template/quotation_report_department.xlsx
+++ b/WebForecastReport/wwwroot/template/quotation_report_department.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kriangkrai\Source\Repos\kreangkrai\WebForecastReport\WebForecastReport\wwwroot\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HOME\WEB\WebForecastReport\WebForecastReport\wwwroot\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="17">
   <si>
     <t>Department</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>Pending</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Quote for Budget</t>
   </si>
 </sst>
 </file>
@@ -131,13 +137,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -280,54 +286,72 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -344,73 +368,70 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -692,16 +713,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BN5"/>
+  <dimension ref="A1:CB5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.28515625" style="3" customWidth="1"/>
@@ -712,9 +731,8 @@
     <col min="10" max="10" width="4" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.28515625" style="3" customWidth="1"/>
     <col min="12" max="12" width="4" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.28515625" style="3" customWidth="1"/>
+    <col min="13" max="14" width="4.5703125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5.28515625" style="3" customWidth="1"/>
     <col min="18" max="18" width="4" style="3" bestFit="1" customWidth="1"/>
@@ -722,10 +740,9 @@
     <col min="20" max="20" width="4" style="3" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="5.28515625" style="3" customWidth="1"/>
     <col min="22" max="22" width="4" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.28515625" style="3" customWidth="1"/>
     <col min="24" max="24" width="4" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="4" style="3" customWidth="1"/>
     <col min="27" max="27" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="4" style="3" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
@@ -736,8 +753,7 @@
     <col min="34" max="34" width="4" style="3" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="4" style="3" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="4" style="3" customWidth="1"/>
     <col min="39" max="39" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="4" style="3" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
@@ -766,9 +782,22 @@
     <col min="64" max="64" width="4" style="3" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="5.7109375" style="3" customWidth="1"/>
+    <col min="74" max="74" width="5.5703125" style="3" customWidth="1"/>
+    <col min="75" max="75" width="5.28515625" style="3" customWidth="1"/>
+    <col min="76" max="76" width="5.7109375" style="3" customWidth="1"/>
+    <col min="77" max="77" width="5.5703125" style="3" customWidth="1"/>
+    <col min="78" max="78" width="5.42578125" style="3" customWidth="1"/>
+    <col min="79" max="79" width="6" style="3" customWidth="1"/>
+    <col min="80" max="80" width="5.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -794,10 +823,10 @@
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
       <c r="AB1" s="6"/>
       <c r="AC1" s="6"/>
       <c r="AD1" s="6"/>
@@ -835,320 +864,386 @@
       <c r="BJ1" s="6"/>
       <c r="BK1" s="6"/>
       <c r="BL1" s="6"/>
+      <c r="BM1" s="6"/>
+      <c r="BN1" s="6"/>
+      <c r="BO1" s="6"/>
+      <c r="BP1" s="6"/>
+      <c r="BQ1" s="6"/>
+      <c r="BR1" s="6"/>
     </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="18" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="12" t="s">
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="24"/>
+      <c r="AK2" s="24"/>
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="24"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="13"/>
-      <c r="AM2" s="13"/>
-      <c r="AN2" s="13"/>
-      <c r="AO2" s="13"/>
-      <c r="AP2" s="13"/>
-      <c r="AQ2" s="13"/>
-      <c r="AR2" s="13"/>
-      <c r="AS2" s="13"/>
-      <c r="AT2" s="13"/>
-      <c r="AU2" s="13"/>
-      <c r="AV2" s="13"/>
-      <c r="AW2" s="13"/>
-      <c r="AX2" s="13"/>
-      <c r="AY2" s="13"/>
-      <c r="AZ2" s="13"/>
-      <c r="BA2" s="13"/>
-      <c r="BB2" s="13"/>
-      <c r="BC2" s="13"/>
-      <c r="BD2" s="13"/>
-      <c r="BE2" s="13"/>
-      <c r="BF2" s="13"/>
-      <c r="BG2" s="13"/>
-      <c r="BH2" s="13"/>
-      <c r="BI2" s="13"/>
-      <c r="BJ2" s="13"/>
-      <c r="BK2" s="13"/>
-      <c r="BL2" s="13"/>
-      <c r="BM2" s="13"/>
-      <c r="BN2" s="14"/>
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="21"/>
+      <c r="AR2" s="21"/>
+      <c r="AS2" s="21"/>
+      <c r="AT2" s="21"/>
+      <c r="AU2" s="21"/>
+      <c r="AV2" s="21"/>
+      <c r="AW2" s="21"/>
+      <c r="AX2" s="21"/>
+      <c r="AY2" s="21"/>
+      <c r="AZ2" s="21"/>
+      <c r="BA2" s="21"/>
+      <c r="BB2" s="21"/>
+      <c r="BC2" s="21"/>
+      <c r="BD2" s="21"/>
+      <c r="BE2" s="21"/>
+      <c r="BF2" s="21"/>
+      <c r="BG2" s="21"/>
+      <c r="BH2" s="21"/>
+      <c r="BI2" s="21"/>
+      <c r="BJ2" s="21"/>
+      <c r="BK2" s="21"/>
+      <c r="BL2" s="21"/>
+      <c r="BM2" s="21"/>
+      <c r="BN2" s="21"/>
+      <c r="BO2" s="21"/>
+      <c r="BP2" s="21"/>
+      <c r="BQ2" s="21"/>
+      <c r="BR2" s="21"/>
+      <c r="BS2" s="21"/>
+      <c r="BT2" s="21"/>
+      <c r="BU2" s="21"/>
+      <c r="BV2" s="21"/>
+      <c r="BW2" s="21"/>
+      <c r="BX2" s="21"/>
+      <c r="BY2" s="21"/>
+      <c r="BZ2" s="21"/>
+      <c r="CA2" s="21"/>
+      <c r="CB2" s="21"/>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="15" t="s">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="15" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="15" t="s">
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="16"/>
-      <c r="AG3" s="16"/>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="25" t="s">
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="22"/>
+      <c r="AK3" s="22"/>
+      <c r="AL3" s="22"/>
+      <c r="AM3" s="22"/>
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="AJ3" s="26"/>
-      <c r="AK3" s="26"/>
-      <c r="AL3" s="26"/>
-      <c r="AM3" s="26"/>
-      <c r="AN3" s="26"/>
-      <c r="AO3" s="26"/>
-      <c r="AP3" s="27"/>
-      <c r="AQ3" s="35" t="s">
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="32"/>
+      <c r="AR3" s="32"/>
+      <c r="AS3" s="32"/>
+      <c r="AT3" s="32"/>
+      <c r="AU3" s="32"/>
+      <c r="AV3" s="33"/>
+      <c r="AW3" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="AR3" s="36"/>
-      <c r="AS3" s="36"/>
-      <c r="AT3" s="36"/>
-      <c r="AU3" s="36"/>
-      <c r="AV3" s="36"/>
-      <c r="AW3" s="36"/>
-      <c r="AX3" s="37"/>
-      <c r="AY3" s="45" t="s">
+      <c r="AX3" s="44"/>
+      <c r="AY3" s="44"/>
+      <c r="AZ3" s="44"/>
+      <c r="BA3" s="44"/>
+      <c r="BB3" s="44"/>
+      <c r="BC3" s="44"/>
+      <c r="BD3" s="45"/>
+      <c r="BE3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="AZ3" s="46"/>
-      <c r="BA3" s="46"/>
-      <c r="BB3" s="46"/>
-      <c r="BC3" s="46"/>
-      <c r="BD3" s="46"/>
-      <c r="BE3" s="46"/>
-      <c r="BF3" s="47"/>
-      <c r="BG3" s="40" t="s">
+      <c r="BF3" s="37"/>
+      <c r="BG3" s="37"/>
+      <c r="BH3" s="37"/>
+      <c r="BI3" s="37"/>
+      <c r="BJ3" s="37"/>
+      <c r="BK3" s="37"/>
+      <c r="BL3" s="38"/>
+      <c r="BM3" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="BH3" s="50"/>
-      <c r="BI3" s="50"/>
-      <c r="BJ3" s="50"/>
-      <c r="BK3" s="50"/>
-      <c r="BL3" s="50"/>
-      <c r="BM3" s="50"/>
-      <c r="BN3" s="41"/>
+      <c r="BN3" s="51"/>
+      <c r="BO3" s="51"/>
+      <c r="BP3" s="51"/>
+      <c r="BQ3" s="51"/>
+      <c r="BR3" s="51"/>
+      <c r="BS3" s="51"/>
+      <c r="BT3" s="52"/>
+      <c r="BU3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="BV3" s="16"/>
+      <c r="BW3" s="16"/>
+      <c r="BX3" s="16"/>
+      <c r="BY3" s="16"/>
+      <c r="BZ3" s="16"/>
+      <c r="CA3" s="16"/>
+      <c r="CB3" s="17"/>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="15" t="s">
+    <row r="4" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="15" t="s">
+      <c r="F4" s="14"/>
+      <c r="G4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="15" t="s">
+      <c r="H4" s="14"/>
+      <c r="I4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="15" t="s">
+      <c r="J4" s="14"/>
+      <c r="K4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="N4" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="O4" s="15" t="s">
+      <c r="L4" s="14"/>
+      <c r="M4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="14"/>
+      <c r="O4" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="15" t="s">
+      <c r="R4" s="14"/>
+      <c r="S4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="17"/>
-      <c r="S4" s="15" t="s">
+      <c r="T4" s="14"/>
+      <c r="U4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="17"/>
-      <c r="U4" s="15" t="s">
+      <c r="V4" s="14"/>
+      <c r="W4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="V4" s="17"/>
-      <c r="W4" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y4" s="15" t="s">
+      <c r="X4" s="14"/>
+      <c r="Y4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB4" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="15" t="s">
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="15" t="s">
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="15" t="s">
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH4" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI4" s="32" t="s">
+      <c r="AJ4" s="14"/>
+      <c r="AK4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL4" s="14"/>
+      <c r="AM4" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN4" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AJ4" s="33"/>
-      <c r="AK4" s="32" t="s">
+      <c r="AP4" s="56"/>
+      <c r="AQ4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AL4" s="33"/>
-      <c r="AM4" s="32" t="s">
+      <c r="AR4" s="56"/>
+      <c r="AS4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="AN4" s="33"/>
-      <c r="AO4" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP4" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="AQ4" s="43" t="s">
+      <c r="AT4" s="56"/>
+      <c r="AU4" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV4" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW4" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AR4" s="44"/>
-      <c r="AS4" s="43" t="s">
+      <c r="AX4" s="47"/>
+      <c r="AY4" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="AT4" s="44"/>
-      <c r="AU4" s="43" t="s">
+      <c r="AZ4" s="47"/>
+      <c r="BA4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="AV4" s="44"/>
-      <c r="AW4" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="AX4" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="AY4" s="30" t="s">
+      <c r="BB4" s="47"/>
+      <c r="BC4" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD4" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE4" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="AZ4" s="31"/>
-      <c r="BA4" s="30" t="s">
+      <c r="BF4" s="40"/>
+      <c r="BG4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="BB4" s="31"/>
-      <c r="BC4" s="30" t="s">
+      <c r="BH4" s="40"/>
+      <c r="BI4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="BD4" s="31"/>
-      <c r="BE4" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF4" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="BG4" s="40" t="s">
+      <c r="BJ4" s="40"/>
+      <c r="BK4" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL4" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="BM4" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="BH4" s="41"/>
-      <c r="BI4" s="40" t="s">
+      <c r="BN4" s="52"/>
+      <c r="BO4" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="BJ4" s="41"/>
-      <c r="BK4" s="40" t="s">
+      <c r="BP4" s="52"/>
+      <c r="BQ4" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="BL4" s="41"/>
-      <c r="BM4" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="BN4" s="51" t="s">
+      <c r="BR4" s="52"/>
+      <c r="BS4" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="BT4" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="BU4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="BV4" s="17"/>
+      <c r="BW4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BX4" s="17"/>
+      <c r="BY4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="BZ4" s="17"/>
+      <c r="CA4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="CB4" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+    <row r="5" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="8" t="s">
         <v>7</v>
       </c>
@@ -1173,14 +1268,14 @@
       <c r="L5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="M5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
       <c r="Q5" s="8" t="s">
         <v>7</v>
       </c>
@@ -1199,20 +1294,20 @@
       <c r="V5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="W5" s="24"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB5" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="W5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="30"/>
       <c r="AC5" s="8" t="s">
         <v>7</v>
       </c>
@@ -1225,143 +1320,190 @@
       <c r="AF5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AG5" s="22"/>
-      <c r="AH5" s="22"/>
-      <c r="AI5" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ5" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="AK5" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="AL5" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="AM5" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN5" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="AO5" s="29"/>
-      <c r="AP5" s="29"/>
-      <c r="AQ5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AS5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AU5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AV5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AW5" s="39"/>
-      <c r="AX5" s="39"/>
-      <c r="AY5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AZ5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="BA5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="BB5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="BC5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="BD5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="BE5" s="49"/>
-      <c r="BF5" s="49"/>
-      <c r="BG5" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="BH5" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="BI5" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="BJ5" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="BK5" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="BL5" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="BM5" s="52"/>
-      <c r="BN5" s="52"/>
+      <c r="AG5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM5" s="27"/>
+      <c r="AN5" s="27"/>
+      <c r="AO5" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP5" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ5" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR5" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS5" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT5" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU5" s="35"/>
+      <c r="AV5" s="35"/>
+      <c r="AW5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BC5" s="49"/>
+      <c r="BD5" s="49"/>
+      <c r="BE5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="BH5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="BJ5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK5" s="42"/>
+      <c r="BL5" s="42"/>
+      <c r="BM5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="BO5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="BQ5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="BS5" s="54"/>
+      <c r="BT5" s="54"/>
+      <c r="BU5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="BW5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="BY5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="BZ5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="CA5" s="19"/>
+      <c r="CB5" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="BG3:BN3"/>
-    <mergeCell ref="BM4:BM5"/>
-    <mergeCell ref="BN4:BN5"/>
+  <mergeCells count="61">
+    <mergeCell ref="AO2:CB2"/>
+    <mergeCell ref="BM3:BT3"/>
+    <mergeCell ref="BS4:BS5"/>
+    <mergeCell ref="BT4:BT5"/>
+    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="BO4:BP4"/>
+    <mergeCell ref="BQ4:BR4"/>
+    <mergeCell ref="AW3:BD3"/>
+    <mergeCell ref="AW4:AX4"/>
+    <mergeCell ref="AY4:AZ4"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="BC4:BC5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="BE3:BL3"/>
+    <mergeCell ref="BE4:BF4"/>
     <mergeCell ref="BG4:BH4"/>
     <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="BK4:BL4"/>
-    <mergeCell ref="AI2:BN2"/>
-    <mergeCell ref="AY3:BF3"/>
-    <mergeCell ref="AY4:AZ4"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="BC4:BD4"/>
-    <mergeCell ref="BE4:BE5"/>
-    <mergeCell ref="BF4:BF5"/>
-    <mergeCell ref="AQ3:AX3"/>
+    <mergeCell ref="BK4:BK5"/>
+    <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="AO4:AP4"/>
     <mergeCell ref="AQ4:AR4"/>
     <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="AX4:AX5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AI3:AP3"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="O3:X3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E2:AH2"/>
-    <mergeCell ref="Y3:AH3"/>
+    <mergeCell ref="AU4:AU5"/>
+    <mergeCell ref="AV4:AV5"/>
+    <mergeCell ref="E3:P3"/>
+    <mergeCell ref="E2:AN2"/>
+    <mergeCell ref="AC3:AN3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="AB4:AB5"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="BU3:CB3"/>
+    <mergeCell ref="BU4:BV4"/>
+    <mergeCell ref="BW4:BX4"/>
+    <mergeCell ref="BY4:BZ4"/>
+    <mergeCell ref="CA4:CA5"/>
+    <mergeCell ref="CB4:CB5"/>
+    <mergeCell ref="Q3:AB3"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="AO3:AV3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
